--- a/Excel-XLSX/UN-SEY.xlsx
+++ b/Excel-XLSX/UN-SEY.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>cS0m0M</t>
+    <t>c2EDdj</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-SEY.xlsx
+++ b/Excel-XLSX/UN-SEY.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>c2EDdj</t>
+    <t>hA59Mi</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-SEY.xlsx
+++ b/Excel-XLSX/UN-SEY.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>hA59Mi</t>
+    <t>y1WNJj</t>
   </si>
   <si>
     <t>0</t>
